--- a/StructureDefinition-ext-R5-CapabilityStatement.messaging.xlsx
+++ b/StructureDefinition-ext-R5-CapabilityStatement.messaging.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="212">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -441,15 +441,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The protocol used for message transport.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-message-transport-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -650,15 +641,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The mode of a message capability statement.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-event-capability-mode-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:supportedMessage.extension:definition</t>
   </si>
   <si>
@@ -690,7 +672,7 @@
     <t>Extension.extension:supportedMessage.extension:definition.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-MessageDefinition|0.0.1-snapshot-3|MessageDefinition|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-MessageDefinition|MessageDefinition)
 </t>
   </si>
   <si>
@@ -1050,8 +1032,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="37.25" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.51171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2282,43 +2264,43 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>131</v>
@@ -2326,13 +2308,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2357,14 +2339,14 @@
         <v>94</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2433,7 +2415,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>116</v>
@@ -2536,7 +2518,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>118</v>
@@ -2641,7 +2623,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>124</v>
@@ -2684,7 +2666,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2746,7 +2728,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>133</v>
@@ -2772,13 +2754,13 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2829,7 +2811,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2841,7 +2823,7 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>131</v>
@@ -2849,10 +2831,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2892,7 +2874,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2954,10 +2936,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2980,13 +2962,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3037,7 +3019,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3049,7 +3031,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>131</v>
@@ -3057,13 +3039,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3088,16 +3070,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3166,7 +3148,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3269,7 +3251,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3374,10 +3356,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3417,7 +3399,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3479,10 +3461,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3505,16 +3487,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3564,7 +3546,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3576,7 +3558,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>131</v>
@@ -3584,13 +3566,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3615,14 +3597,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3691,7 +3673,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3794,7 +3776,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3899,10 +3881,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3942,7 +3924,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4004,10 +3986,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4030,13 +4012,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4087,7 +4069,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4099,7 +4081,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>131</v>
@@ -4107,13 +4089,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4138,16 +4120,16 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4216,7 +4198,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4319,7 +4301,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4422,13 +4404,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4453,14 +4435,14 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4529,7 +4511,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>116</v>
@@ -4632,7 +4614,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>118</v>
@@ -4737,7 +4719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>124</v>
@@ -4780,7 +4762,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4842,7 +4824,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>133</v>
@@ -4868,13 +4850,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4901,13 +4883,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -4925,7 +4907,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -4937,7 +4919,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>131</v>
@@ -4945,13 +4927,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4976,14 +4958,14 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5052,7 +5034,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>116</v>
@@ -5155,7 +5137,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>118</v>
@@ -5260,7 +5242,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>124</v>
@@ -5303,7 +5285,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5365,7 +5347,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>133</v>
@@ -5391,13 +5373,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5448,7 +5430,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -5460,7 +5442,7 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>131</v>
@@ -5468,10 +5450,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5511,7 +5493,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5573,10 +5555,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5599,13 +5581,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5656,7 +5638,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -5668,7 +5650,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>131</v>
@@ -5781,10 +5763,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5807,13 +5789,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5864,7 +5846,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -5876,7 +5858,7 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>131</v>
